--- a/create cards for OZON WB XLS/output_data_for_Ozon.xlsx
+++ b/create cards for OZON WB XLS/output_data_for_Ozon.xlsx
@@ -7154,12 +7154,12 @@
     <row r="4" ht="13.8" customHeight="1" s="23">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка волосы облако Тест10</t>
+          <t>Термонаклейка Девушка волосы облако</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Термонаклейка для одежды: Девушка волосы облако Тест10</t>
+          <t>Термонаклейка для одежды: Девушка волосы облако</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7188,13 +7188,13 @@
         <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="O4" s="40" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;</t>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Девушка волосы облако Тест10</t>
+          <t>Девушка волосы облако</t>
         </is>
       </c>
       <c r="W4" s="30" t="inlineStr">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Термонаклейка Девушка волосы облако Тест10. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </t>
+          <t xml:space="preserve">Термонаклейка Девушка волосы облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </t>
         </is>
       </c>
       <c r="Z4" s="22" t="inlineStr">
@@ -7256,7 +7256,7 @@
       <c r="AH4" s="22" t="n"/>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако Тест10</t>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако</t>
         </is>
       </c>
     </row>
@@ -18399,7 +18399,7 @@
     <row r="4" ht="13.8" customHeight="1" s="23">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка волосы облако Тест10</t>
+          <t>Термонаклейка Девушка волосы облако</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -18409,7 +18409,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Video_DTF.mp4</t>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</t>
         </is>
       </c>
     </row>

--- a/create cards for OZON WB XLS/output_data_for_Ozon.xlsx
+++ b/create cards for OZON WB XLS/output_data_for_Ozon.xlsx
@@ -7216,10 +7216,8 @@
           <t>DTF A4 set1</t>
         </is>
       </c>
-      <c r="U4" s="22" t="inlineStr">
-        <is>
-          <t>черный матовый</t>
-        </is>
+      <c r="U4" s="22" t="n">
+        <v/>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -7233,7 +7231,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Термонаклейка Девушка волосы облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </t>
+          <t>Термонаклейка Девушка волосы облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
         </is>
       </c>
       <c r="Z4" s="22" t="inlineStr">
@@ -7261,532 +7259,5140 @@
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="23">
-      <c r="F5" s="30" t="n"/>
-      <c r="G5" s="22" t="n"/>
-      <c r="U5" s="22" t="n"/>
-      <c r="W5" s="30" t="n"/>
-      <c r="Z5" s="22" t="n"/>
-      <c r="AC5" s="22" t="n"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка очки с краской розовой</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Девушка очки с краской розовой</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>285</v>
+      </c>
+      <c r="E5" t="n">
+        <v>428</v>
+      </c>
+      <c r="F5" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G5" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>250</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>300</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_1.jpg</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U5" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Девушка очки с краской розовой</t>
+        </is>
+      </c>
+      <c r="W5" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка очки с краской розовой. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z5" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC5" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE5" s="22" t="n"/>
       <c r="AF5" s="22" t="n"/>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_color.jpg</t>
+        </is>
+      </c>
       <c r="AH5" s="22" t="n"/>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка очки с краской розовой</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="23">
-      <c r="F6" s="30" t="n"/>
-      <c r="G6" s="22" t="n"/>
-      <c r="U6" s="22" t="n"/>
-      <c r="W6" s="30" t="n"/>
-      <c r="Z6" s="22" t="n"/>
-      <c r="AC6" s="22" t="n"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Термонаклейка Мэрилин Монро поп арт вырезки</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Мэрилин Монро поп арт вырезки</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>285</v>
+      </c>
+      <c r="E6" t="n">
+        <v>428</v>
+      </c>
+      <c r="F6" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G6" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v>12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>250</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>300</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_1.jpg</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U6" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Мэрилин Монро поп арт вырезки</t>
+        </is>
+      </c>
+      <c r="W6" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Термонаклейка Мэрилин Монро поп арт вырезки. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z6" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC6" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE6" s="22" t="n"/>
       <c r="AF6" s="22" t="n"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_color.jpg</t>
+        </is>
+      </c>
       <c r="AH6" s="22" t="n"/>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Мэрилин Монро поп арт вырезки</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="23">
-      <c r="F7" s="30" t="n"/>
-      <c r="G7" s="22" t="n"/>
-      <c r="U7" s="22" t="n"/>
-      <c r="W7" s="30" t="n"/>
-      <c r="Z7" s="22" t="n"/>
-      <c r="AC7" s="22" t="n"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Термонаклейка Африканская Девушка черный силуэт</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Африканская Девушка черный силуэт</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>285</v>
+      </c>
+      <c r="E7" t="n">
+        <v>428</v>
+      </c>
+      <c r="F7" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G7" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="n">
+        <v>12</v>
+      </c>
+      <c r="K7" t="n">
+        <v>250</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>300</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U7" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Африканская Девушка черный силуэт</t>
+        </is>
+      </c>
+      <c r="W7" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Термонаклейка Африканская Девушка черный силуэт. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z7" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC7" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE7" s="22" t="n"/>
       <c r="AF7" s="22" t="n"/>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH7" s="22" t="n"/>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Африканская Девушка черный силуэт</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="23">
-      <c r="F8" s="30" t="n"/>
-      <c r="G8" s="22" t="n"/>
-      <c r="U8" s="22" t="n"/>
-      <c r="W8" s="30" t="n"/>
-      <c r="Z8" s="22" t="n"/>
-      <c r="AC8" s="22" t="n"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кот Шанель Chanel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Кот Шанель Chanel</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>285</v>
+      </c>
+      <c r="E8" t="n">
+        <v>428</v>
+      </c>
+      <c r="F8" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G8" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="n">
+        <v>12</v>
+      </c>
+      <c r="K8" t="n">
+        <v>250</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>300</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U8" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Кот Шанель Chanel</t>
+        </is>
+      </c>
+      <c r="W8" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кот Шанель Chanel. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z8" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC8" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE8" s="22" t="n"/>
       <c r="AF8" s="22" t="n"/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH8" s="22" t="n"/>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот Шанель Chanel</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="23">
-      <c r="F9" s="30" t="n"/>
-      <c r="G9" s="22" t="n"/>
-      <c r="U9" s="22" t="n"/>
-      <c r="W9" s="30" t="n"/>
-      <c r="Z9" s="22" t="n"/>
-      <c r="AC9" s="22" t="n"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кот выглядывает радуга</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Кот выглядывает радуга</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>285</v>
+      </c>
+      <c r="E9" t="n">
+        <v>428</v>
+      </c>
+      <c r="F9" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G9" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" t="n">
+        <v>250</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>300</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U9" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Кот выглядывает радуга</t>
+        </is>
+      </c>
+      <c r="W9" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кот выглядывает радуга. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z9" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC9" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE9" s="22" t="n"/>
       <c r="AF9" s="22" t="n"/>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH9" s="22" t="n"/>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот выглядывает радуга</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="23">
-      <c r="F10" s="30" t="n"/>
-      <c r="G10" s="22" t="n"/>
-      <c r="U10" s="22" t="n"/>
-      <c r="W10" s="30" t="n"/>
-      <c r="Z10" s="22" t="n"/>
-      <c r="AC10" s="22" t="n"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кот картина Ван Гог</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Кот картина Ван Гог</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>285</v>
+      </c>
+      <c r="E10" t="n">
+        <v>428</v>
+      </c>
+      <c r="F10" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G10" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" t="n">
+        <v>250</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>300</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U10" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Кот картина Ван Гог</t>
+        </is>
+      </c>
+      <c r="W10" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кот картина Ван Гог. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z10" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC10" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE10" s="22" t="n"/>
       <c r="AF10" s="22" t="n"/>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH10" s="22" t="n"/>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот картина Ван Гог</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="23">
-      <c r="F11" s="30" t="n"/>
-      <c r="G11" s="22" t="n"/>
-      <c r="U11" s="22" t="n"/>
-      <c r="W11" s="30" t="n"/>
-      <c r="Z11" s="22" t="n"/>
-      <c r="AC11" s="22" t="n"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Термонаклейка мультяшный Кот картина Ван Гог</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: мультяшный Кот картина Ван Гог</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>285</v>
+      </c>
+      <c r="E11" t="n">
+        <v>428</v>
+      </c>
+      <c r="F11" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G11" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" t="n">
+        <v>250</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>300</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_1.jpg</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U11" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>мультяшный Кот картина Ван Гог</t>
+        </is>
+      </c>
+      <c r="W11" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Термонаклейка мультяшный Кот картина Ван Гог. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z11" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC11" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE11" s="22" t="n"/>
       <c r="AF11" s="22" t="n"/>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_color.jpg</t>
+        </is>
+      </c>
       <c r="AH11" s="22" t="n"/>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, мультяшный Кот картина Ван Гог</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="23">
-      <c r="F12" s="30" t="n"/>
-      <c r="G12" s="22" t="n"/>
-      <c r="U12" s="22" t="n"/>
-      <c r="W12" s="30" t="n"/>
-      <c r="Z12" s="22" t="n"/>
-      <c r="AC12" s="22" t="n"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Термонаклейка Женщина кошка ест вишинку</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Женщина кошка ест вишинку</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>285</v>
+      </c>
+      <c r="E12" t="n">
+        <v>428</v>
+      </c>
+      <c r="F12" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G12" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v>12</v>
+      </c>
+      <c r="K12" t="n">
+        <v>250</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>300</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U12" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Женщина кошка ест вишинку</t>
+        </is>
+      </c>
+      <c r="W12" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Термонаклейка Женщина кошка ест вишинку. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z12" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC12" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE12" s="22" t="n"/>
       <c r="AF12" s="22" t="n"/>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH12" s="22" t="n"/>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Женщина кошка ест вишинку</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="23">
-      <c r="F13" s="30" t="n"/>
-      <c r="G13" s="22" t="n"/>
-      <c r="U13" s="22" t="n"/>
-      <c r="W13" s="30" t="n"/>
-      <c r="Z13" s="22" t="n"/>
-      <c r="AC13" s="22" t="n"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Термонаклейка Красные перцы</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Красные перцы</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>285</v>
+      </c>
+      <c r="E13" t="n">
+        <v>428</v>
+      </c>
+      <c r="F13" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G13" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="n">
+        <v>12</v>
+      </c>
+      <c r="K13" t="n">
+        <v>250</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>300</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_1.jpg</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U13" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Красные перцы</t>
+        </is>
+      </c>
+      <c r="W13" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Термонаклейка Красные перцы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z13" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC13" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE13" s="22" t="n"/>
       <c r="AF13" s="22" t="n"/>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_color.jpg</t>
+        </is>
+      </c>
       <c r="AH13" s="22" t="n"/>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Красные перцы</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="23">
-      <c r="F14" s="30" t="n"/>
-      <c r="G14" s="22" t="n"/>
-      <c r="U14" s="22" t="n"/>
-      <c r="W14" s="30" t="n"/>
-      <c r="Z14" s="22" t="n"/>
-      <c r="AC14" s="22" t="n"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Термонаклейка Dior Диор Девушка курит облако</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Dior Диор Девушка курит облако</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>285</v>
+      </c>
+      <c r="E14" t="n">
+        <v>428</v>
+      </c>
+      <c r="F14" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G14" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="I14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="n">
+        <v>250</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>300</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_1.jpg</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U14" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Dior Диор Девушка курит облако</t>
+        </is>
+      </c>
+      <c r="W14" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Термонаклейка Dior Диор Девушка курит облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z14" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC14" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE14" s="22" t="n"/>
       <c r="AF14" s="22" t="n"/>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_color.jpg</t>
+        </is>
+      </c>
       <c r="AH14" s="22" t="n"/>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Dior Диор Девушка курит облако</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="23">
-      <c r="F15" s="30" t="n"/>
-      <c r="G15" s="22" t="n"/>
-      <c r="U15" s="22" t="n"/>
-      <c r="W15" s="30" t="n"/>
-      <c r="Z15" s="22" t="n"/>
-      <c r="AC15" s="22" t="n"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Термонаклейка Dior Диор Цветы</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Dior Диор Цветы</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>285</v>
+      </c>
+      <c r="E15" t="n">
+        <v>428</v>
+      </c>
+      <c r="F15" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G15" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="n">
+        <v>12</v>
+      </c>
+      <c r="K15" t="n">
+        <v>250</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>300</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U15" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Dior Диор Цветы</t>
+        </is>
+      </c>
+      <c r="W15" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Термонаклейка Dior Диор Цветы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z15" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC15" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE15" s="22" t="n"/>
       <c r="AF15" s="22" t="n"/>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH15" s="22" t="n"/>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Dior Диор Цветы</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="23">
-      <c r="F16" s="30" t="n"/>
-      <c r="G16" s="22" t="n"/>
-      <c r="U16" s="22" t="n"/>
-      <c r="W16" s="30" t="n"/>
-      <c r="Z16" s="22" t="n"/>
-      <c r="AC16" s="22" t="n"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Термонаклейка Vogue Вог Эйфелева башня</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Vogue Вог Эйфелева башня</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>285</v>
+      </c>
+      <c r="E16" t="n">
+        <v>428</v>
+      </c>
+      <c r="F16" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G16" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="I16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="n">
+        <v>12</v>
+      </c>
+      <c r="K16" t="n">
+        <v>250</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>300</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U16" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Vogue Вог Эйфелева башня</t>
+        </is>
+      </c>
+      <c r="W16" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Термонаклейка Vogue Вог Эйфелева башня. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z16" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC16" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE16" s="22" t="n"/>
       <c r="AF16" s="22" t="n"/>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH16" s="22" t="n"/>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Vogue Вог Эйфелева башня</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="23">
-      <c r="F17" s="30" t="n"/>
-      <c r="G17" s="22" t="n"/>
-      <c r="U17" s="22" t="n"/>
-      <c r="W17" s="30" t="n"/>
-      <c r="Z17" s="22" t="n"/>
-      <c r="AC17" s="22" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Термонаклейка Бюст статуи Feelings розовый скрыты глаза</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Бюст статуи Feelings розовый скрыты глаза</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>285</v>
+      </c>
+      <c r="E17" t="n">
+        <v>428</v>
+      </c>
+      <c r="F17" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G17" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="I17" t="n">
+        <v/>
+      </c>
+      <c r="J17" t="n">
+        <v>12</v>
+      </c>
+      <c r="K17" t="n">
+        <v>250</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>300</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U17" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Бюст статуи Feelings розовый скрыты глаза</t>
+        </is>
+      </c>
+      <c r="W17" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Термонаклейка Бюст статуи Feelings розовый скрыты глаза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z17" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC17" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE17" s="22" t="n"/>
       <c r="AF17" s="22" t="n"/>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH17" s="22" t="n"/>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Бюст статуи Feelings розовый скрыты глаза</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="23">
-      <c r="F18" s="30" t="n"/>
-      <c r="G18" s="22" t="n"/>
-      <c r="U18" s="22" t="n"/>
-      <c r="W18" s="30" t="n"/>
-      <c r="Z18" s="22" t="n"/>
-      <c r="AC18" s="22" t="n"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Термонаклейка Рыба паттерн яркая красивая</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Рыба паттерн яркая красивая</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>285</v>
+      </c>
+      <c r="E18" t="n">
+        <v>428</v>
+      </c>
+      <c r="F18" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G18" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v/>
+      </c>
+      <c r="I18" t="n">
+        <v/>
+      </c>
+      <c r="J18" t="n">
+        <v>12</v>
+      </c>
+      <c r="K18" t="n">
+        <v>250</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>300</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U18" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Рыба паттерн яркая красивая</t>
+        </is>
+      </c>
+      <c r="W18" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Термонаклейка Рыба паттерн яркая красивая. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z18" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC18" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE18" s="22" t="n"/>
       <c r="AF18" s="22" t="n"/>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH18" s="22" t="n"/>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Рыба паттерн яркая красивая</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="23">
-      <c r="F19" s="30" t="n"/>
-      <c r="G19" s="22" t="n"/>
-      <c r="U19" s="22" t="n"/>
-      <c r="W19" s="30" t="n"/>
-      <c r="Z19" s="22" t="n"/>
-      <c r="AC19" s="22" t="n"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Термонаклейка Розовый Фламинго цветок</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Розовый Фламинго цветок</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>285</v>
+      </c>
+      <c r="E19" t="n">
+        <v>428</v>
+      </c>
+      <c r="F19" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G19" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v/>
+      </c>
+      <c r="I19" t="n">
+        <v/>
+      </c>
+      <c r="J19" t="n">
+        <v>12</v>
+      </c>
+      <c r="K19" t="n">
+        <v>250</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>300</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U19" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Розовый Фламинго цветок</t>
+        </is>
+      </c>
+      <c r="W19" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Термонаклейка Розовый Фламинго цветок. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z19" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC19" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE19" s="22" t="n"/>
       <c r="AF19" s="22" t="n"/>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH19" s="22" t="n"/>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Розовый Фламинго цветок</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="23">
-      <c r="F20" s="30" t="n"/>
-      <c r="G20" s="22" t="n"/>
-      <c r="U20" s="22" t="n"/>
-      <c r="W20" s="30" t="n"/>
-      <c r="Z20" s="22" t="n"/>
-      <c r="AC20" s="22" t="n"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Дали Ван Гог Фрида Кало в машине</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>285</v>
+      </c>
+      <c r="E20" t="n">
+        <v>428</v>
+      </c>
+      <c r="F20" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G20" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v/>
+      </c>
+      <c r="I20" t="n">
+        <v/>
+      </c>
+      <c r="J20" t="n">
+        <v>12</v>
+      </c>
+      <c r="K20" t="n">
+        <v>250</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>300</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U20" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Дали Ван Гог Фрида Кало в машине</t>
+        </is>
+      </c>
+      <c r="W20" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Термонаклейка Дали Ван Гог Фрида Кало в машине. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z20" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC20" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE20" s="22" t="n"/>
       <c r="AF20" s="22" t="n"/>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH20" s="22" t="n"/>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Дали Ван Гог Фрида Кало в машине</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="12.8" customHeight="1" s="23">
-      <c r="F21" s="30" t="n"/>
-      <c r="G21" s="22" t="n"/>
-      <c r="U21" s="22" t="n"/>
-      <c r="W21" s="30" t="n"/>
-      <c r="Z21" s="22" t="n"/>
-      <c r="AC21" s="22" t="n"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Термонаклейка Женщина кошка пьет молоко из стакана</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Женщина кошка пьет молоко из стакана</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>285</v>
+      </c>
+      <c r="E21" t="n">
+        <v>428</v>
+      </c>
+      <c r="F21" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G21" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v/>
+      </c>
+      <c r="I21" t="n">
+        <v/>
+      </c>
+      <c r="J21" t="n">
+        <v>12</v>
+      </c>
+      <c r="K21" t="n">
+        <v>250</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>300</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U21" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Женщина кошка пьет молоко из стакана</t>
+        </is>
+      </c>
+      <c r="W21" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Термонаклейка Женщина кошка пьет молоко из стакана. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z21" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC21" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE21" s="22" t="n"/>
       <c r="AF21" s="22" t="n"/>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH21" s="22" t="n"/>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Женщина кошка пьет молоко из стакана</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="12.8" customHeight="1" s="23">
-      <c r="F22" s="30" t="n"/>
-      <c r="G22" s="22" t="n"/>
-      <c r="U22" s="22" t="n"/>
-      <c r="W22" s="30" t="n"/>
-      <c r="Z22" s="22" t="n"/>
-      <c r="AC22" s="22" t="n"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Термонаклейка Африканская Девушка разнацветные воосы</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Африканская Девушка разнацветные воосы</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>285</v>
+      </c>
+      <c r="E22" t="n">
+        <v>428</v>
+      </c>
+      <c r="F22" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G22" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v/>
+      </c>
+      <c r="I22" t="n">
+        <v/>
+      </c>
+      <c r="J22" t="n">
+        <v>12</v>
+      </c>
+      <c r="K22" t="n">
+        <v>250</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>300</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U22" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Африканская Девушка разнацветные воосы</t>
+        </is>
+      </c>
+      <c r="W22" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Термонаклейка Африканская Девушка разнацветные воосы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z22" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC22" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE22" s="22" t="n"/>
       <c r="AF22" s="22" t="n"/>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH22" s="22" t="n"/>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Африканская Девушка разнацветные воосы</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="12.8" customHeight="1" s="23">
-      <c r="F23" s="30" t="n"/>
-      <c r="G23" s="22" t="n"/>
-      <c r="U23" s="22" t="n"/>
-      <c r="W23" s="30" t="n"/>
-      <c r="Z23" s="22" t="n"/>
-      <c r="AC23" s="22" t="n"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Термонаклейка Леопардовая блондинка девушка mood</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Леопардовая блондинка девушка mood</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>285</v>
+      </c>
+      <c r="E23" t="n">
+        <v>428</v>
+      </c>
+      <c r="F23" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G23" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v/>
+      </c>
+      <c r="I23" t="n">
+        <v/>
+      </c>
+      <c r="J23" t="n">
+        <v>12</v>
+      </c>
+      <c r="K23" t="n">
+        <v>250</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>300</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_1.jpg</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U23" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Леопардовая блондинка девушка mood</t>
+        </is>
+      </c>
+      <c r="W23" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Термонаклейка Леопардовая блондинка девушка mood. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z23" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC23" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE23" s="22" t="n"/>
       <c r="AF23" s="22" t="n"/>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_color.jpg</t>
+        </is>
+      </c>
       <c r="AH23" s="22" t="n"/>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Леопардовая блондинка девушка mood</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="12.8" customHeight="1" s="23">
-      <c r="F24" s="30" t="n"/>
-      <c r="G24" s="22" t="n"/>
-      <c r="U24" s="22" t="n"/>
-      <c r="W24" s="30" t="n"/>
-      <c r="Z24" s="22" t="n"/>
-      <c r="AC24" s="22" t="n"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Черный Силуэт Девушки</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Цветы Черный Силуэт Девушки</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>285</v>
+      </c>
+      <c r="E24" t="n">
+        <v>428</v>
+      </c>
+      <c r="F24" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G24" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v/>
+      </c>
+      <c r="I24" t="n">
+        <v/>
+      </c>
+      <c r="J24" t="n">
+        <v>12</v>
+      </c>
+      <c r="K24" t="n">
+        <v>250</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>300</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U24" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Цветы Черный Силуэт Девушки</t>
+        </is>
+      </c>
+      <c r="W24" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Черный Силуэт Девушки. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z24" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC24" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE24" s="22" t="n"/>
       <c r="AF24" s="22" t="n"/>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH24" s="22" t="n"/>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Цветы Черный Силуэт Девушки</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="12.8" customHeight="1" s="23">
-      <c r="F25" s="30" t="n"/>
-      <c r="G25" s="22" t="n"/>
-      <c r="U25" s="22" t="n"/>
-      <c r="W25" s="30" t="n"/>
-      <c r="Z25" s="22" t="n"/>
-      <c r="AC25" s="22" t="n"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Термонаклейка Леопардовое сердце поцелуй губ</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Леопардовое сердце поцелуй губ</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>285</v>
+      </c>
+      <c r="E25" t="n">
+        <v>428</v>
+      </c>
+      <c r="F25" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G25" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v/>
+      </c>
+      <c r="I25" t="n">
+        <v/>
+      </c>
+      <c r="J25" t="n">
+        <v>12</v>
+      </c>
+      <c r="K25" t="n">
+        <v>250</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>300</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_1.jpg</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U25" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Леопардовое сердце поцелуй губ</t>
+        </is>
+      </c>
+      <c r="W25" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Термонаклейка Леопардовое сердце поцелуй губ. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z25" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC25" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE25" s="22" t="n"/>
       <c r="AF25" s="22" t="n"/>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_color.jpg</t>
+        </is>
+      </c>
       <c r="AH25" s="22" t="n"/>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Леопардовое сердце поцелуй губ</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="12.8" customHeight="1" s="23">
-      <c r="F26" s="30" t="n"/>
-      <c r="G26" s="22" t="n"/>
-      <c r="U26" s="22" t="n"/>
-      <c r="W26" s="30" t="n"/>
-      <c r="Z26" s="22" t="n"/>
-      <c r="AC26" s="22" t="n"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка с чупа чупсом I dont care</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Девушка с чупа чупсом I dont care</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>285</v>
+      </c>
+      <c r="E26" t="n">
+        <v>428</v>
+      </c>
+      <c r="F26" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G26" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v/>
+      </c>
+      <c r="I26" t="n">
+        <v/>
+      </c>
+      <c r="J26" t="n">
+        <v>12</v>
+      </c>
+      <c r="K26" t="n">
+        <v>250</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>300</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U26" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Девушка с чупа чупсом I dont care</t>
+        </is>
+      </c>
+      <c r="W26" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка с чупа чупсом I dont care. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z26" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC26" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE26" s="22" t="n"/>
       <c r="AF26" s="22" t="n"/>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH26" s="22" t="n"/>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка с чупа чупсом I dont care</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="12.8" customHeight="1" s="23">
-      <c r="F27" s="30" t="n"/>
-      <c r="G27" s="22" t="n"/>
-      <c r="U27" s="22" t="n"/>
-      <c r="W27" s="30" t="n"/>
-      <c r="Z27" s="22" t="n"/>
-      <c r="AC27" s="22" t="n"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме девочка с мечом розовые волосы</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Аниме девочка с мечом розовые волосы</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>285</v>
+      </c>
+      <c r="E27" t="n">
+        <v>428</v>
+      </c>
+      <c r="F27" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G27" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v/>
+      </c>
+      <c r="I27" t="n">
+        <v/>
+      </c>
+      <c r="J27" t="n">
+        <v>12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>250</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>300</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U27" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Аниме девочка с мечом розовые волосы</t>
+        </is>
+      </c>
+      <c r="W27" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме девочка с мечом розовые волосы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z27" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC27" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE27" s="22" t="n"/>
       <c r="AF27" s="22" t="n"/>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH27" s="22" t="n"/>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме девочка с мечом розовые волосы</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="12.8" customHeight="1" s="23">
-      <c r="F28" s="30" t="n"/>
-      <c r="G28" s="22" t="n"/>
-      <c r="U28" s="22" t="n"/>
-      <c r="W28" s="30" t="n"/>
-      <c r="Z28" s="22" t="n"/>
-      <c r="AC28" s="22" t="n"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме девочка в куртке со стикерами</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Аниме девочка в куртке со стикерами</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>285</v>
+      </c>
+      <c r="E28" t="n">
+        <v>428</v>
+      </c>
+      <c r="F28" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G28" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v/>
+      </c>
+      <c r="I28" t="n">
+        <v/>
+      </c>
+      <c r="J28" t="n">
+        <v>12</v>
+      </c>
+      <c r="K28" t="n">
+        <v>250</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>300</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U28" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Аниме девочка в куртке со стикерами</t>
+        </is>
+      </c>
+      <c r="W28" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме девочка в куртке со стикерами. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z28" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC28" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE28" s="22" t="n"/>
       <c r="AF28" s="22" t="n"/>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH28" s="22" t="n"/>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме девочка в куртке со стикерами</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="12.8" customHeight="1" s="23">
-      <c r="F29" s="30" t="n"/>
-      <c r="G29" s="22" t="n"/>
-      <c r="U29" s="22" t="n"/>
-      <c r="W29" s="30" t="n"/>
-      <c r="Z29" s="22" t="n"/>
-      <c r="AC29" s="22" t="n"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Сейлор Мун в куртке Аниме Sailor Moon</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>285</v>
+      </c>
+      <c r="E29" t="n">
+        <v>428</v>
+      </c>
+      <c r="F29" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G29" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v/>
+      </c>
+      <c r="I29" t="n">
+        <v/>
+      </c>
+      <c r="J29" t="n">
+        <v>12</v>
+      </c>
+      <c r="K29" t="n">
+        <v>250</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>300</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U29" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Сейлор Мун в куртке Аниме Sailor Moon</t>
+        </is>
+      </c>
+      <c r="W29" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z29" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC29" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE29" s="22" t="n"/>
       <c r="AF29" s="22" t="n"/>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH29" s="22" t="n"/>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Сейлор Мун в куртке Аниме Sailor Moon</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="12.8" customHeight="1" s="23">
-      <c r="F30" s="30" t="n"/>
-      <c r="G30" s="22" t="n"/>
-      <c r="U30" s="22" t="n"/>
-      <c r="W30" s="30" t="n"/>
-      <c r="Z30" s="22" t="n"/>
-      <c r="AC30" s="22" t="n"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме Девочка с чупа чупсом</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Аниме Девочка с чупа чупсом</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>285</v>
+      </c>
+      <c r="E30" t="n">
+        <v>428</v>
+      </c>
+      <c r="F30" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G30" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v/>
+      </c>
+      <c r="I30" t="n">
+        <v/>
+      </c>
+      <c r="J30" t="n">
+        <v>12</v>
+      </c>
+      <c r="K30" t="n">
+        <v>250</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>300</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U30" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Аниме Девочка с чупа чупсом</t>
+        </is>
+      </c>
+      <c r="W30" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме Девочка с чупа чупсом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z30" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC30" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE30" s="22" t="n"/>
       <c r="AF30" s="22" t="n"/>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH30" s="22" t="n"/>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме Девочка с чупа чупсом</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="12.8" customHeight="1" s="23">
-      <c r="F31" s="30" t="n"/>
-      <c r="G31" s="22" t="n"/>
-      <c r="U31" s="22" t="n"/>
-      <c r="W31" s="30" t="n"/>
-      <c r="Z31" s="22" t="n"/>
-      <c r="AC31" s="22" t="n"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме Девочка с черным капюшоном котята</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Аниме Девочка с черным капюшоном котята</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>285</v>
+      </c>
+      <c r="E31" t="n">
+        <v>428</v>
+      </c>
+      <c r="F31" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G31" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v/>
+      </c>
+      <c r="I31" t="n">
+        <v/>
+      </c>
+      <c r="J31" t="n">
+        <v>12</v>
+      </c>
+      <c r="K31" t="n">
+        <v>250</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>300</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U31" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Аниме Девочка с черным капюшоном котята</t>
+        </is>
+      </c>
+      <c r="W31" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме Девочка с черным капюшоном котята. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z31" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC31" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE31" s="22" t="n"/>
       <c r="AF31" s="22" t="n"/>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH31" s="22" t="n"/>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме Девочка с черным капюшоном котята</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="12.8" customHeight="1" s="23">
-      <c r="F32" s="30" t="n"/>
-      <c r="G32" s="22" t="n"/>
-      <c r="U32" s="22" t="n"/>
-      <c r="W32" s="30" t="n"/>
-      <c r="Z32" s="22" t="n"/>
-      <c r="AC32" s="22" t="n"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме Девочка в розовый капюшоном уши кошки</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Аниме Девочка в розовый капюшоном уши кошки</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>285</v>
+      </c>
+      <c r="E32" t="n">
+        <v>428</v>
+      </c>
+      <c r="F32" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G32" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v/>
+      </c>
+      <c r="I32" t="n">
+        <v/>
+      </c>
+      <c r="J32" t="n">
+        <v>12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>250</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>300</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U32" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Аниме Девочка в розовый капюшоном уши кошки</t>
+        </is>
+      </c>
+      <c r="W32" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме Девочка в розовый капюшоном уши кошки. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z32" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC32" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE32" s="22" t="n"/>
       <c r="AF32" s="22" t="n"/>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH32" s="22" t="n"/>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме Девочка в розовый капюшоном уши кошки</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="12.8" customHeight="1" s="23">
-      <c r="F33" s="30" t="n"/>
-      <c r="G33" s="22" t="n"/>
-      <c r="U33" s="22" t="n"/>
-      <c r="W33" s="30" t="n"/>
-      <c r="Z33" s="22" t="n"/>
-      <c r="AC33" s="22" t="n"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка Блондинка с котом на голове</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Девушка Блондинка с котом на голове</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>285</v>
+      </c>
+      <c r="E33" t="n">
+        <v>428</v>
+      </c>
+      <c r="F33" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G33" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v/>
+      </c>
+      <c r="I33" t="n">
+        <v/>
+      </c>
+      <c r="J33" t="n">
+        <v>12</v>
+      </c>
+      <c r="K33" t="n">
+        <v>250</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>300</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U33" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Девушка Блондинка с котом на голове</t>
+        </is>
+      </c>
+      <c r="W33" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка Блондинка с котом на голове. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z33" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC33" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE33" s="22" t="n"/>
       <c r="AF33" s="22" t="n"/>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH33" s="22" t="n"/>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка Блондинка с котом на голове</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="12.8" customHeight="1" s="23">
-      <c r="F34" s="30" t="n"/>
-      <c r="G34" s="22" t="n"/>
-      <c r="U34" s="22" t="n"/>
-      <c r="W34" s="30" t="n"/>
-      <c r="Z34" s="22" t="n"/>
-      <c r="AC34" s="22" t="n"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Термонаклейка Поцелуй берега и реки картина маслом</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Поцелуй берега и реки картина маслом</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>285</v>
+      </c>
+      <c r="E34" t="n">
+        <v>428</v>
+      </c>
+      <c r="F34" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G34" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v/>
+      </c>
+      <c r="I34" t="n">
+        <v/>
+      </c>
+      <c r="J34" t="n">
+        <v>12</v>
+      </c>
+      <c r="K34" t="n">
+        <v>250</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>300</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U34" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Поцелуй берега и реки картина маслом</t>
+        </is>
+      </c>
+      <c r="W34" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Термонаклейка Поцелуй берега и реки картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z34" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC34" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE34" s="22" t="n"/>
       <c r="AF34" s="22" t="n"/>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH34" s="22" t="n"/>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Поцелуй берега и реки картина маслом</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="12.8" customHeight="1" s="23">
-      <c r="F35" s="30" t="n"/>
-      <c r="G35" s="22" t="n"/>
-      <c r="U35" s="22" t="n"/>
-      <c r="W35" s="30" t="n"/>
-      <c r="Z35" s="22" t="n"/>
-      <c r="AC35" s="22" t="n"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Термонаклейка картина Поцелуй Густава Климта</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: картина Поцелуй Густава Климта</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>285</v>
+      </c>
+      <c r="E35" t="n">
+        <v>428</v>
+      </c>
+      <c r="F35" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G35" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v/>
+      </c>
+      <c r="I35" t="n">
+        <v/>
+      </c>
+      <c r="J35" t="n">
+        <v>12</v>
+      </c>
+      <c r="K35" t="n">
+        <v>250</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>300</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U35" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>картина Поцелуй Густава Климта</t>
+        </is>
+      </c>
+      <c r="W35" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Термонаклейка картина Поцелуй Густава Климта. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z35" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC35" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE35" s="22" t="n"/>
       <c r="AF35" s="22" t="n"/>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH35" s="22" t="n"/>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, картина Поцелуй Густава Климта</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="12.8" customHeight="1" s="23">
-      <c r="F36" s="30" t="n"/>
-      <c r="G36" s="22" t="n"/>
-      <c r="U36" s="22" t="n"/>
-      <c r="W36" s="30" t="n"/>
-      <c r="Z36" s="22" t="n"/>
-      <c r="AC36" s="22" t="n"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Термонаклейка Поцелуй в космосе картина маслом</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Поцелуй в космосе картина маслом</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>285</v>
+      </c>
+      <c r="E36" t="n">
+        <v>428</v>
+      </c>
+      <c r="F36" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G36" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v/>
+      </c>
+      <c r="I36" t="n">
+        <v/>
+      </c>
+      <c r="J36" t="n">
+        <v>12</v>
+      </c>
+      <c r="K36" t="n">
+        <v>250</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>300</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U36" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Поцелуй в космосе картина маслом</t>
+        </is>
+      </c>
+      <c r="W36" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Термонаклейка Поцелуй в космосе картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z36" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC36" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE36" s="22" t="n"/>
       <c r="AF36" s="22" t="n"/>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH36" s="22" t="n"/>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Поцелуй в космосе картина маслом</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="12.8" customHeight="1" s="23">
-      <c r="F37" s="30" t="n"/>
-      <c r="G37" s="22" t="n"/>
-      <c r="U37" s="22" t="n"/>
-      <c r="W37" s="30" t="n"/>
-      <c r="Z37" s="22" t="n"/>
-      <c r="AC37" s="22" t="n"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Термонаклейка Губы с чупа чупсом</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Губы с чупа чупсом</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>285</v>
+      </c>
+      <c r="E37" t="n">
+        <v>428</v>
+      </c>
+      <c r="F37" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G37" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v/>
+      </c>
+      <c r="I37" t="n">
+        <v/>
+      </c>
+      <c r="J37" t="n">
+        <v>12</v>
+      </c>
+      <c r="K37" t="n">
+        <v>250</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>300</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U37" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Губы с чупа чупсом</t>
+        </is>
+      </c>
+      <c r="W37" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Термонаклейка Губы с чупа чупсом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z37" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC37" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE37" s="22" t="n"/>
       <c r="AF37" s="22" t="n"/>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH37" s="22" t="n"/>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Губы с чупа чупсом</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="12.8" customHeight="1" s="23">
-      <c r="F38" s="30" t="n"/>
-      <c r="G38" s="22" t="n"/>
-      <c r="U38" s="22" t="n"/>
-      <c r="W38" s="30" t="n"/>
-      <c r="Z38" s="22" t="n"/>
-      <c r="AC38" s="22" t="n"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Термонаклейка Dolce Gabbana Дольче Габбана лимоны</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Dolce Gabbana Дольче Габбана лимоны</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>285</v>
+      </c>
+      <c r="E38" t="n">
+        <v>428</v>
+      </c>
+      <c r="F38" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G38" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v/>
+      </c>
+      <c r="I38" t="n">
+        <v/>
+      </c>
+      <c r="J38" t="n">
+        <v>12</v>
+      </c>
+      <c r="K38" t="n">
+        <v>250</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>300</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U38" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Dolce Gabbana Дольче Габбана лимоны</t>
+        </is>
+      </c>
+      <c r="W38" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Термонаклейка Dolce Gabbana Дольче Габбана лимоны. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z38" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC38" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE38" s="22" t="n"/>
       <c r="AF38" s="22" t="n"/>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH38" s="22" t="n"/>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Dolce Gabbana Дольче Габбана лимоны</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="12.8" customHeight="1" s="23">
-      <c r="F39" s="30" t="n"/>
-      <c r="G39" s="22" t="n"/>
-      <c r="U39" s="22" t="n"/>
-      <c r="W39" s="30" t="n"/>
-      <c r="Z39" s="22" t="n"/>
-      <c r="AC39" s="22" t="n"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Термонаклейка надпись love любовь 3 раза</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: надпись love любовь 3 раза</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>285</v>
+      </c>
+      <c r="E39" t="n">
+        <v>428</v>
+      </c>
+      <c r="F39" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G39" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v/>
+      </c>
+      <c r="I39" t="n">
+        <v/>
+      </c>
+      <c r="J39" t="n">
+        <v>12</v>
+      </c>
+      <c r="K39" t="n">
+        <v>250</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>300</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U39" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>надпись love любовь 3 раза</t>
+        </is>
+      </c>
+      <c r="W39" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Термонаклейка надпись love любовь 3 раза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z39" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC39" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE39" s="22" t="n"/>
       <c r="AF39" s="22" t="n"/>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH39" s="22" t="n"/>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, надпись love любовь 3 раза</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="12.8" customHeight="1" s="23">
-      <c r="F40" s="30" t="n"/>
-      <c r="G40" s="22" t="n"/>
-      <c r="U40" s="22" t="n"/>
-      <c r="W40" s="30" t="n"/>
-      <c r="Z40" s="22" t="n"/>
-      <c r="AC40" s="22" t="n"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Термонаклейка надпись love любовь</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: надпись love любовь</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>285</v>
+      </c>
+      <c r="E40" t="n">
+        <v>428</v>
+      </c>
+      <c r="F40" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G40" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v/>
+      </c>
+      <c r="I40" t="n">
+        <v/>
+      </c>
+      <c r="J40" t="n">
+        <v>12</v>
+      </c>
+      <c r="K40" t="n">
+        <v>250</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>300</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_1.jpg</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U40" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>надпись love любовь</t>
+        </is>
+      </c>
+      <c r="W40" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Термонаклейка надпись love любовь. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z40" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC40" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE40" s="22" t="n"/>
       <c r="AF40" s="22" t="n"/>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_color.jpg</t>
+        </is>
+      </c>
       <c r="AH40" s="22" t="n"/>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, надпись love любовь</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="12.8" customHeight="1" s="23">
-      <c r="F41" s="30" t="n"/>
-      <c r="G41" s="22" t="n"/>
-      <c r="U41" s="22" t="n"/>
-      <c r="W41" s="30" t="n"/>
-      <c r="Z41" s="22" t="n"/>
-      <c r="AC41" s="22" t="n"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Термонаклейка Мэрилин Монро Supreme Суприм глаза</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Мэрилин Монро Supreme Суприм глаза</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>285</v>
+      </c>
+      <c r="E41" t="n">
+        <v>428</v>
+      </c>
+      <c r="F41" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G41" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v/>
+      </c>
+      <c r="I41" t="n">
+        <v/>
+      </c>
+      <c r="J41" t="n">
+        <v>12</v>
+      </c>
+      <c r="K41" t="n">
+        <v>250</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>300</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U41" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Мэрилин Монро Supreme Суприм глаза</t>
+        </is>
+      </c>
+      <c r="W41" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Термонаклейка Мэрилин Монро Supreme Суприм глаза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z41" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC41" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE41" s="22" t="n"/>
       <c r="AF41" s="22" t="n"/>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH41" s="22" t="n"/>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Мэрилин Монро Supreme Суприм глаза</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="12.8" customHeight="1" s="23">
-      <c r="F42" s="30" t="n"/>
-      <c r="G42" s="22" t="n"/>
-      <c r="U42" s="22" t="n"/>
-      <c r="W42" s="30" t="n"/>
-      <c r="Z42" s="22" t="n"/>
-      <c r="AC42" s="22" t="n"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Термонаклейка Микки Маус надписи на фоне</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Микки Маус надписи на фоне</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>285</v>
+      </c>
+      <c r="E42" t="n">
+        <v>428</v>
+      </c>
+      <c r="F42" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G42" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v/>
+      </c>
+      <c r="I42" t="n">
+        <v/>
+      </c>
+      <c r="J42" t="n">
+        <v>12</v>
+      </c>
+      <c r="K42" t="n">
+        <v>250</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>300</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_1.jpg</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U42" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Микки Маус надписи на фоне</t>
+        </is>
+      </c>
+      <c r="W42" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Термонаклейка Микки Маус надписи на фоне. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z42" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC42" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE42" s="22" t="n"/>
       <c r="AF42" s="22" t="n"/>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_color.jpg</t>
+        </is>
+      </c>
       <c r="AH42" s="22" t="n"/>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Микки Маус надписи на фоне</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="12.8" customHeight="1" s="23">
-      <c r="F43" s="30" t="n"/>
-      <c r="G43" s="22" t="n"/>
-      <c r="U43" s="22" t="n"/>
-      <c r="W43" s="30" t="n"/>
-      <c r="Z43" s="22" t="n"/>
-      <c r="AC43" s="22" t="n"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Термонаклейка картина Девушка с сережкой Билли Айлиш</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: картина Девушка с сережкой Билли Айлиш</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>285</v>
+      </c>
+      <c r="E43" t="n">
+        <v>428</v>
+      </c>
+      <c r="F43" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G43" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v/>
+      </c>
+      <c r="I43" t="n">
+        <v/>
+      </c>
+      <c r="J43" t="n">
+        <v>12</v>
+      </c>
+      <c r="K43" t="n">
+        <v>250</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>300</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U43" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>картина Девушка с сережкой Билли Айлиш</t>
+        </is>
+      </c>
+      <c r="W43" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Термонаклейка картина Девушка с сережкой Билли Айлиш. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z43" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC43" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE43" s="22" t="n"/>
       <c r="AF43" s="22" t="n"/>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH43" s="22" t="n"/>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, картина Девушка с сережкой Билли Айлиш</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="12.8" customHeight="1" s="23">
-      <c r="F44" s="30" t="n"/>
-      <c r="G44" s="22" t="n"/>
-      <c r="U44" s="22" t="n"/>
-      <c r="W44" s="30" t="n"/>
-      <c r="Z44" s="22" t="n"/>
-      <c r="AC44" s="22" t="n"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Термонаклейка Play Boy Плей Бой губы обложка губы марка</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Play Boy Плей Бой губы обложка губы марка</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>285</v>
+      </c>
+      <c r="E44" t="n">
+        <v>428</v>
+      </c>
+      <c r="F44" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G44" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v/>
+      </c>
+      <c r="I44" t="n">
+        <v/>
+      </c>
+      <c r="J44" t="n">
+        <v>12</v>
+      </c>
+      <c r="K44" t="n">
+        <v>250</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>300</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U44" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Play Boy Плей Бой губы обложка губы марка</t>
+        </is>
+      </c>
+      <c r="W44" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Термонаклейка Play Boy Плей Бой губы обложка губы марка. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z44" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC44" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE44" s="22" t="n"/>
       <c r="AF44" s="22" t="n"/>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH44" s="22" t="n"/>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Play Boy Плей Бой губы обложка губы марка</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="12.8" customHeight="1" s="23">
-      <c r="F45" s="30" t="n"/>
-      <c r="G45" s="22" t="n"/>
-      <c r="U45" s="22" t="n"/>
-      <c r="W45" s="30" t="n"/>
-      <c r="Z45" s="22" t="n"/>
-      <c r="AC45" s="22" t="n"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Термонаклейка Змеи Змея на розовом фоне паттерн картина</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Змеи Змея на розовом фоне паттерн картина</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>285</v>
+      </c>
+      <c r="E45" t="n">
+        <v>428</v>
+      </c>
+      <c r="F45" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G45" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v/>
+      </c>
+      <c r="I45" t="n">
+        <v/>
+      </c>
+      <c r="J45" t="n">
+        <v>12</v>
+      </c>
+      <c r="K45" t="n">
+        <v>250</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>300</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U45" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Змеи Змея на розовом фоне паттерн картина</t>
+        </is>
+      </c>
+      <c r="W45" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Термонаклейка Змеи Змея на розовом фоне паттерн картина. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z45" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC45" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE45" s="22" t="n"/>
       <c r="AF45" s="22" t="n"/>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH45" s="22" t="n"/>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Змеи Змея на розовом фоне паттерн картина</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="12.8" customHeight="1" s="23">
-      <c r="F46" s="30" t="n"/>
-      <c r="G46" s="22" t="n"/>
-      <c r="U46" s="22" t="n"/>
-      <c r="W46" s="30" t="n"/>
-      <c r="Z46" s="22" t="n"/>
-      <c r="AC46" s="22" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Термонаклейка Солнце Цветок большое в ретро стиле хиппи</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Солнце Цветок большое в ретро стиле хиппи</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>285</v>
+      </c>
+      <c r="E46" t="n">
+        <v>428</v>
+      </c>
+      <c r="F46" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G46" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v/>
+      </c>
+      <c r="I46" t="n">
+        <v/>
+      </c>
+      <c r="J46" t="n">
+        <v>12</v>
+      </c>
+      <c r="K46" t="n">
+        <v>250</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>300</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U46" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Солнце Цветок большое в ретро стиле хиппи</t>
+        </is>
+      </c>
+      <c r="W46" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Термонаклейка Солнце Цветок большое в ретро стиле хиппи. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z46" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC46" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE46" s="22" t="n"/>
       <c r="AF46" s="22" t="n"/>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH46" s="22" t="n"/>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Солнце Цветок большое в ретро стиле хиппи</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="12.8" customHeight="1" s="23">
-      <c r="F47" s="30" t="n"/>
-      <c r="G47" s="22" t="n"/>
-      <c r="U47" s="22" t="n"/>
-      <c r="W47" s="30" t="n"/>
-      <c r="Z47" s="22" t="n"/>
-      <c r="AC47" s="22" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Термонаклейка Тигр розовый крупный план</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Тигр розовый крупный план</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>285</v>
+      </c>
+      <c r="E47" t="n">
+        <v>428</v>
+      </c>
+      <c r="F47" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G47" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v/>
+      </c>
+      <c r="I47" t="n">
+        <v/>
+      </c>
+      <c r="J47" t="n">
+        <v>12</v>
+      </c>
+      <c r="K47" t="n">
+        <v>250</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>300</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_1.jpg</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U47" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Тигр розовый крупный план</t>
+        </is>
+      </c>
+      <c r="W47" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Термонаклейка Тигр розовый крупный план. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z47" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC47" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE47" s="22" t="n"/>
       <c r="AF47" s="22" t="n"/>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_color.jpg</t>
+        </is>
+      </c>
       <c r="AH47" s="22" t="n"/>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Тигр розовый крупный план</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="12.8" customHeight="1" s="23">
-      <c r="F48" s="30" t="n"/>
-      <c r="G48" s="22" t="n"/>
-      <c r="U48" s="22" t="n"/>
-      <c r="W48" s="30" t="n"/>
-      <c r="Z48" s="22" t="n"/>
-      <c r="AC48" s="22" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Термонаклейка Леопард розовый крупный план</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Леопард розовый крупный план</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>285</v>
+      </c>
+      <c r="E48" t="n">
+        <v>428</v>
+      </c>
+      <c r="F48" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G48" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v/>
+      </c>
+      <c r="I48" t="n">
+        <v/>
+      </c>
+      <c r="J48" t="n">
+        <v>12</v>
+      </c>
+      <c r="K48" t="n">
+        <v>250</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>300</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U48" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Леопард розовый крупный план</t>
+        </is>
+      </c>
+      <c r="W48" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Термонаклейка Леопард розовый крупный план. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z48" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC48" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE48" s="22" t="n"/>
       <c r="AF48" s="22" t="n"/>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH48" s="22" t="n"/>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Леопард розовый крупный план</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="12.8" customHeight="1" s="23">
-      <c r="F49" s="30" t="n"/>
-      <c r="G49" s="22" t="n"/>
-      <c r="U49" s="22" t="n"/>
-      <c r="W49" s="30" t="n"/>
-      <c r="Z49" s="22" t="n"/>
-      <c r="AC49" s="22" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кит в море картина маслом</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Кит в море картина маслом</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>285</v>
+      </c>
+      <c r="E49" t="n">
+        <v>428</v>
+      </c>
+      <c r="F49" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G49" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v/>
+      </c>
+      <c r="I49" t="n">
+        <v/>
+      </c>
+      <c r="J49" t="n">
+        <v>12</v>
+      </c>
+      <c r="K49" t="n">
+        <v>250</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>300</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_1.jpg</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U49" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Кит в море картина маслом</t>
+        </is>
+      </c>
+      <c r="W49" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кит в море картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z49" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC49" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE49" s="22" t="n"/>
       <c r="AF49" s="22" t="n"/>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_color.jpg</t>
+        </is>
+      </c>
       <c r="AH49" s="22" t="n"/>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кит в море картина маслом</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="12.8" customHeight="1" s="23">
-      <c r="F50" s="30" t="n"/>
-      <c r="G50" s="22" t="n"/>
-      <c r="U50" s="22" t="n"/>
-      <c r="W50" s="30" t="n"/>
-      <c r="Z50" s="22" t="n"/>
-      <c r="AC50" s="22" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Термонаклейка Бокал красного вина сердце</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Бокал красного вина сердце</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>285</v>
+      </c>
+      <c r="E50" t="n">
+        <v>428</v>
+      </c>
+      <c r="F50" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G50" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v/>
+      </c>
+      <c r="I50" t="n">
+        <v/>
+      </c>
+      <c r="J50" t="n">
+        <v>12</v>
+      </c>
+      <c r="K50" t="n">
+        <v>250</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>300</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U50" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Бокал красного вина сердце</t>
+        </is>
+      </c>
+      <c r="W50" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Термонаклейка Бокал красного вина сердце. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z50" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC50" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE50" s="22" t="n"/>
       <c r="AF50" s="22" t="n"/>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH50" s="22" t="n"/>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Бокал красного вина сердце</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="12.8" customHeight="1" s="23">
-      <c r="F51" s="30" t="n"/>
-      <c r="G51" s="22" t="n"/>
-      <c r="U51" s="22" t="n"/>
-      <c r="W51" s="30" t="n"/>
-      <c r="Z51" s="22" t="n"/>
-      <c r="AC51" s="22" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Термонаклейка Джокер поп арт Joker</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Джокер поп арт Joker</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>285</v>
+      </c>
+      <c r="E51" t="n">
+        <v>428</v>
+      </c>
+      <c r="F51" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G51" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v/>
+      </c>
+      <c r="I51" t="n">
+        <v/>
+      </c>
+      <c r="J51" t="n">
+        <v>12</v>
+      </c>
+      <c r="K51" t="n">
+        <v>250</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>300</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_1.jpg</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U51" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Джокер поп арт Joker</t>
+        </is>
+      </c>
+      <c r="W51" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Термонаклейка Джокер поп арт Joker. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z51" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC51" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE51" s="22" t="n"/>
       <c r="AF51" s="22" t="n"/>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_color.jpg</t>
+        </is>
+      </c>
       <c r="AH51" s="22" t="n"/>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Джокер поп арт Joker</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="23">
-      <c r="F52" s="30" t="n"/>
-      <c r="G52" s="22" t="n"/>
-      <c r="U52" s="22" t="n"/>
-      <c r="W52" s="30" t="n"/>
-      <c r="Z52" s="22" t="n"/>
-      <c r="AC52" s="22" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Термонаклейка Одри Хепбёрн поп арт</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Термонаклейка для одежды: Одри Хепбёрн поп арт</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>285</v>
+      </c>
+      <c r="E52" t="n">
+        <v>428</v>
+      </c>
+      <c r="F52" s="30" t="inlineStr">
+        <is>
+          <t>Не облагается</t>
+        </is>
+      </c>
+      <c r="G52" s="22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v/>
+      </c>
+      <c r="I52" t="n">
+        <v/>
+      </c>
+      <c r="J52" t="n">
+        <v>12</v>
+      </c>
+      <c r="K52" t="n">
+        <v>250</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>300</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_1.jpg</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Punky Monkey</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>DTF A4 set1</t>
+        </is>
+      </c>
+      <c r="U52" s="22" t="n">
+        <v/>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Одри Хепбёрн поп арт</t>
+        </is>
+      </c>
+      <c r="W52" s="30" t="inlineStr">
+        <is>
+          <t>Термонаклейка</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Термонаклейка Одри Хепбёрн поп арт. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+        </is>
+      </c>
+      <c r="Z52" s="22" t="inlineStr">
+        <is>
+          <t>Россия</t>
+        </is>
+      </c>
+      <c r="AC52" s="22" t="inlineStr">
+        <is>
+          <t>Полимерный материал</t>
+        </is>
+      </c>
       <c r="AE52" s="22" t="n"/>
       <c r="AF52" s="22" t="n"/>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_color.jpg</t>
+        </is>
+      </c>
       <c r="AH52" s="22" t="n"/>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Одри Хепбёрн поп арт</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="12.8" customHeight="1" s="23">
       <c r="F53" s="30" t="n"/>
@@ -18339,7 +22945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -18409,7 +23015,823 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</t>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка очки с краской розовой</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Термонаклейка Мэрилин Монро поп арт вырезки</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Термонаклейка Африканская Девушка черный силуэт</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кот Шанель Chanel</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кот выглядывает радуга</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кот картина Ван Гог</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Термонаклейка мультяшный Кот картина Ван Гог</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Термонаклейка Женщина кошка ест вишинку</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Термонаклейка Красные перцы</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Термонаклейка Dior Диор Девушка курит облако</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Термонаклейка Dior Диор Цветы</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Термонаклейка Vogue Вог Эйфелева башня</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Термонаклейка Бюст статуи Feelings розовый скрыты глаза</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Термонаклейка Рыба паттерн яркая красивая</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Термонаклейка Розовый Фламинго цветок</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Термонаклейка Женщина кошка пьет молоко из стакана</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Термонаклейка Африканская Девушка разнацветные воосы</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Термонаклейка Леопардовая блондинка девушка mood</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Черный Силуэт Девушки</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Термонаклейка Леопардовое сердце поцелуй губ</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка с чупа чупсом I dont care</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме девочка с мечом розовые волосы</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме девочка в куртке со стикерами</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме Девочка с чупа чупсом</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме Девочка с черным капюшоном котята</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аниме Девочка в розовый капюшоном уши кошки</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Термонаклейка Девушка Блондинка с котом на голове</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Термонаклейка Поцелуй берега и реки картина маслом</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Термонаклейка картина Поцелуй Густава Климта</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Термонаклейка Поцелуй в космосе картина маслом</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Термонаклейка Губы с чупа чупсом</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Термонаклейка Dolce Gabbana Дольче Габбана лимоны</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Термонаклейка надпись love любовь 3 раза</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Термонаклейка надпись love любовь</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Термонаклейка Мэрилин Монро Supreme Суприм глаза</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Термонаклейка Микки Маус надписи на фоне</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Термонаклейка картина Девушка с сережкой Билли Айлиш</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Термонаклейка Play Boy Плей Бой губы обложка губы марка</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Термонаклейка Змеи Змея на розовом фоне паттерн картина</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Термонаклейка Солнце Цветок большое в ретро стиле хиппи</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Термонаклейка Тигр розовый крупный план</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Термонаклейка Леопард розовый крупный план</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Термонаклейка Кит в море картина маслом</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Термонаклейка Бокал красного вина сердце</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Термонаклейка Джокер поп арт Joker</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Термонаклейка Одри Хепбёрн поп арт</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>инструкция_dtf.mp4</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</t>
         </is>
       </c>
     </row>

--- a/create cards for OZON WB XLS/output_data_for_Ozon.xlsx
+++ b/create cards for OZON WB XLS/output_data_for_Ozon.xlsx
@@ -8545,12 +8545,12 @@
     <row r="17" ht="12.8" customHeight="1" s="23">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Термонаклейка Бюст статуи Feelings розовый скрыты глаза</t>
+          <t>Термонаклейка Бюст статуи Feelings скрыты глаза</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Термонаклейка для одежды: Бюст статуи Feelings розовый скрыты глаза</t>
+          <t>Термонаклейка для одежды: Бюст статуи Feelings скрыты глаза</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Бюст статуи Feelings розовый скрыты глаза</t>
+          <t>Бюст статуи Feelings скрыты глаза</t>
         </is>
       </c>
       <c r="W17" s="30" t="inlineStr">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Термонаклейка Бюст статуи Feelings розовый скрыты глаза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+          <t>Термонаклейка Бюст статуи Feelings скрыты глаза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
         </is>
       </c>
       <c r="Z17" s="22" t="inlineStr">
@@ -8645,7 +8645,7 @@
       <c r="AH17" s="22" t="n"/>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Бюст статуи Feelings розовый скрыты глаза</t>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Бюст статуи Feelings скрыты глаза</t>
         </is>
       </c>
     </row>
@@ -9080,12 +9080,12 @@
     <row r="22" ht="12.8" customHeight="1" s="23">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Термонаклейка Африканская Девушка разнацветные воосы</t>
+          <t>Термонаклейка Африка Девушка разнацветные воосы</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Термонаклейка для одежды: Африканская Девушка разнацветные воосы</t>
+          <t>Термонаклейка для одежды: Африка Девушка разнацветные воосы</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Африканская Девушка разнацветные воосы</t>
+          <t>Африка Девушка разнацветные воосы</t>
         </is>
       </c>
       <c r="W22" s="30" t="inlineStr">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Термонаклейка Африканская Девушка разнацветные воосы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+          <t>Термонаклейка Африка Девушка разнацветные воосы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
         </is>
       </c>
       <c r="Z22" s="22" t="inlineStr">
@@ -9180,7 +9180,7 @@
       <c r="AH22" s="22" t="n"/>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Африканская Девушка разнацветные воосы</t>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Африка Девушка разнацветные воосы</t>
         </is>
       </c>
     </row>
@@ -10043,12 +10043,12 @@
     <row r="31" ht="12.8" customHeight="1" s="23">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Термонаклейка Аниме Девочка с черным капюшоном котята</t>
+          <t>Термонаклейка Аниме Девочка с черным капюшоном</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Термонаклейка для одежды: Аниме Девочка с черным капюшоном котята</t>
+          <t>Термонаклейка для одежды: Аниме Девочка с черным капюшоном</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -10110,7 +10110,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Аниме Девочка с черным капюшоном котята</t>
+          <t>Аниме Девочка с черным капюшоном</t>
         </is>
       </c>
       <c r="W31" s="30" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Термонаклейка Аниме Девочка с черным капюшоном котята. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+          <t>Термонаклейка Аниме Девочка с черным капюшоном. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
         </is>
       </c>
       <c r="Z31" s="22" t="inlineStr">
@@ -10143,19 +10143,19 @@
       <c r="AH31" s="22" t="n"/>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме Девочка с черным капюшоном котята</t>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме Девочка с черным капюшоном</t>
         </is>
       </c>
     </row>
     <row r="32" ht="12.8" customHeight="1" s="23">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Термонаклейка Аниме Девочка в розовый капюшоном уши кошки</t>
+          <t>Термонаклейка Аниме Девочка в розовый капюшоном</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Термонаклейка для одежды: Аниме Девочка в розовый капюшоном уши кошки</t>
+          <t>Термонаклейка для одежды: Аниме Девочка в розовый капюшоном</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Аниме Девочка в розовый капюшоном уши кошки</t>
+          <t>Аниме Девочка в розовый капюшоном</t>
         </is>
       </c>
       <c r="W32" s="30" t="inlineStr">
@@ -10227,7 +10227,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Термонаклейка Аниме Девочка в розовый капюшоном уши кошки. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+          <t>Термонаклейка Аниме Девочка в розовый капюшоном. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
         </is>
       </c>
       <c r="Z32" s="22" t="inlineStr">
@@ -10250,7 +10250,7 @@
       <c r="AH32" s="22" t="n"/>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме Девочка в розовый капюшоном уши кошки</t>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме Девочка в розовый капюшоном</t>
         </is>
       </c>
     </row>
@@ -11327,12 +11327,12 @@
     <row r="43" ht="12.8" customHeight="1" s="23">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Термонаклейка картина Девушка с сережкой Билли Айлиш</t>
+          <t>Термонаклейка картина Девушка с сережкой Билли</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Термонаклейка для одежды: картина Девушка с сережкой Билли Айлиш</t>
+          <t>Термонаклейка для одежды: картина Девушка с сережкой Билли</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -11394,7 +11394,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>картина Девушка с сережкой Билли Айлиш</t>
+          <t>картина Девушка с сережкой Билли</t>
         </is>
       </c>
       <c r="W43" s="30" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Термонаклейка картина Девушка с сережкой Билли Айлиш. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+          <t>Термонаклейка картина Девушка с сережкой Билли. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
         </is>
       </c>
       <c r="Z43" s="22" t="inlineStr">
@@ -11427,19 +11427,19 @@
       <c r="AH43" s="22" t="n"/>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, картина Девушка с сережкой Билли Айлиш</t>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, картина Девушка с сережкой Билли</t>
         </is>
       </c>
     </row>
     <row r="44" ht="12.8" customHeight="1" s="23">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Термонаклейка Play Boy Плей Бой губы обложка губы марка</t>
+          <t>Термонаклейка Play Boy губы обложка губы марка</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Термонаклейка для одежды: Play Boy Плей Бой губы обложка губы марка</t>
+          <t>Термонаклейка для одежды: Play Boy губы обложка губы марка</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Play Boy Плей Бой губы обложка губы марка</t>
+          <t>Play Boy губы обложка губы марка</t>
         </is>
       </c>
       <c r="W44" s="30" t="inlineStr">
@@ -11511,7 +11511,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Термонаклейка Play Boy Плей Бой губы обложка губы марка. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+          <t>Термонаклейка Play Boy губы обложка губы марка. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
         </is>
       </c>
       <c r="Z44" s="22" t="inlineStr">
@@ -11534,19 +11534,19 @@
       <c r="AH44" s="22" t="n"/>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Play Boy Плей Бой губы обложка губы марка</t>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Play Boy губы обложка губы марка</t>
         </is>
       </c>
     </row>
     <row r="45" ht="12.8" customHeight="1" s="23">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Термонаклейка Змеи Змея на розовом фоне паттерн картина</t>
+          <t>Термонаклейка Змеи Змея на розовом фоне паттерн</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Термонаклейка для одежды: Змеи Змея на розовом фоне паттерн картина</t>
+          <t>Термонаклейка для одежды: Змеи Змея на розовом фоне паттерн</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Змеи Змея на розовом фоне паттерн картина</t>
+          <t>Змеи Змея на розовом фоне паттерн</t>
         </is>
       </c>
       <c r="W45" s="30" t="inlineStr">
@@ -11618,7 +11618,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Термонаклейка Змеи Змея на розовом фоне паттерн картина. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
+          <t>Термонаклейка Змеи Змея на розовом фоне паттерн. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</t>
         </is>
       </c>
       <c r="Z45" s="22" t="inlineStr">
@@ -11641,7 +11641,7 @@
       <c r="AH45" s="22" t="n"/>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Змеи Змея на розовом фоне паттерн картина</t>
+          <t>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Змеи Змея на розовом фоне паттерн</t>
         </is>
       </c>
     </row>
@@ -23226,7 +23226,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Термонаклейка Бюст статуи Feelings розовый скрыты глаза</t>
+          <t>Термонаклейка Бюст статуи Feelings скрыты глаза</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -23311,7 +23311,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Термонаклейка Африканская Девушка разнацветные воосы</t>
+          <t>Термонаклейка Африка Девушка разнацветные воосы</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -23464,7 +23464,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Термонаклейка Аниме Девочка с черным капюшоном котята</t>
+          <t>Термонаклейка Аниме Девочка с черным капюшоном</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -23481,7 +23481,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Термонаклейка Аниме Девочка в розовый капюшоном уши кошки</t>
+          <t>Термонаклейка Аниме Девочка в розовый капюшоном</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -23668,7 +23668,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Термонаклейка картина Девушка с сережкой Билли Айлиш</t>
+          <t>Термонаклейка картина Девушка с сережкой Билли</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -23685,7 +23685,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Термонаклейка Play Boy Плей Бой губы обложка губы марка</t>
+          <t>Термонаклейка Play Boy губы обложка губы марка</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -23702,7 +23702,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Термонаклейка Змеи Змея на розовом фоне паттерн картина</t>
+          <t>Термонаклейка Змеи Змея на розовом фоне паттерн</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
